--- a/RTL/tangnano20k_hdmi_labo4/src/video_out/sigmoid.xlsx
+++ b/RTL/tangnano20k_hdmi_labo4/src/video_out/sigmoid.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="66">
   <si>
     <t>p[-1]</t>
     <phoneticPr fontId="1"/>
@@ -302,6 +302,10 @@
   </si>
   <si>
     <t>(1-d)(p[0]-p[1]) + d(1-d)(p[0]+p[1]) + p[1]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a =</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,7 +411,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>1/(1+exp(-5*x))</a:t>
+              <a:t>1/(1+exp(-a*x))</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -465,12 +469,201 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!#REF!</c:f>
+              <c:f>Sheet2!$D$2:$D$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="64"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -486,11 +679,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="373234248"/>
-        <c:axId val="373235032"/>
+        <c:axId val="176620120"/>
+        <c:axId val="176755424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="373234248"/>
+        <c:axId val="176620120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +725,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373235032"/>
+        <c:crossAx val="176755424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -540,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="373235032"/>
+        <c:axId val="176755424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,7 +784,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="373234248"/>
+        <c:crossAx val="176620120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2010,207 +2203,215 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D65"/>
+  <dimension ref="B1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <f>1/(1+EXP(-4*(B2-32)/32))</f>
-        <v>1.7986209962091559E-2</v>
+        <f>1/(1+EXP(-$G$1*(B2-32)/32))</f>
+        <v>4.7425873177566781E-2</v>
       </c>
       <c r="D2">
         <f>INT(C2*64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C65" si="0">1/(1+EXP(-4*(B3-32)/32))</f>
-        <v>2.0332353342658753E-2</v>
+        <f t="shared" ref="C3:C65" si="0">1/(1+EXP(-$G$1*(B3-32)/32))</f>
+        <v>5.1845466649779841E-2</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D65" si="1">INT(C3*64)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>2.2977369910025615E-2</v>
+        <v>5.6652425307973833E-2</v>
       </c>
       <c r="D4">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>2.5957357197796852E-2</v>
+        <v>6.1875985723642717E-2</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>2.9312230751356319E-2</v>
+        <v>6.7546691139629106E-2</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>3.3085978388704126E-2</v>
+        <v>7.3696269706048464E-2</v>
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>3.7326887344129457E-2</v>
+        <v>8.0357468822207082E-2</v>
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>4.2087727915618836E-2</v>
+        <v>8.756383952305867E-2</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>4.7425873177566781E-2</v>
+        <v>9.534946489910949E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>5.3403329799824227E-2</v>
+        <v>0.1037486268663797</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>6.0086650174007626E-2</v>
+        <v>0.11279540628289322</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>6.7546691139629106E-2</v>
+        <v>0.12252321251815919</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>7.5858180021243546E-2</v>
+        <v>0.13296424019782926</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>8.5099045007020244E-2</v>
+        <v>0.14414885303274058</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>9.534946489910949E-2</v>
+        <v>0.15610489744545741</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -2219,11 +2420,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.10669059394565118</v>
+        <v>0.16885695214168317</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -2232,11 +2433,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.11920292202211755</v>
+        <v>0.18242552380635635</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
@@ -2245,11 +2446,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.13296424019782926</v>
+        <v>0.19682620364309852</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
@@ -2258,11 +2459,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.14804719803168948</v>
+        <v>0.21206880435710532</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -2271,11 +2472,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.16451646289656316</v>
+        <v>0.22815650216092537</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -2284,11 +2485,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.18242552380635635</v>
+        <v>0.24508501313237172</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -2297,11 +2498,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.20181322226037884</v>
+        <v>0.26284183737131667</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.15">
@@ -2310,11 +2511,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.22270013882530884</v>
+        <v>0.28140560742914383</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
@@ -2323,11 +2524,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.24508501313237172</v>
+        <v>0.30074557894124149</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
@@ -2336,11 +2537,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.2689414213699951</v>
+        <v>0.32082130082460703</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
@@ -2349,11 +2550,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.29421497216298875</v>
+        <v>0.34158249943831698</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
@@ -2362,11 +2563,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.32082130082460703</v>
+        <v>0.36296920551961681</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
@@ -2375,11 +2576,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.34864513533394575</v>
+        <v>0.38491214448393352</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
@@ -2388,11 +2589,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.37754066879814541</v>
+        <v>0.40733340004593027</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
@@ -2401,11 +2602,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.40733340004593027</v>
+        <v>0.43014734858584286</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
@@ -2414,11 +2615,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.43782349911420193</v>
+        <v>0.45326184801538616</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
@@ -2427,7 +2628,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.46879062662624377</v>
+        <v>0.47657965106367606</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -2439,7 +2640,7 @@
         <v>32</v>
       </c>
       <c r="C34">
-        <f>1/(1+EXP(-4*(B34-32)/32))</f>
+        <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
       <c r="D34">
@@ -2453,7 +2654,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.53120937337375629</v>
+        <v>0.52342034893632405</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -2466,11 +2667,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.56217650088579807</v>
+        <v>0.54673815198461384</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
@@ -2479,11 +2680,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.59266659995406967</v>
+        <v>0.56985265141415709</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.15">
@@ -2492,11 +2693,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.62245933120185459</v>
+        <v>0.59266659995406967</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -2505,11 +2706,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.65135486466605419</v>
+        <v>0.61508785551606648</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.15">
@@ -2518,11 +2719,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.67917869917539297</v>
+        <v>0.63703079448038313</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
@@ -2531,11 +2732,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.70578502783701125</v>
+        <v>0.65841750056168302</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.15">
@@ -2544,11 +2745,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.7310585786300049</v>
+        <v>0.67917869917539297</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
@@ -2557,11 +2758,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.75491498686762826</v>
+        <v>0.69925442105875846</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.15">
@@ -2570,11 +2771,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.77729986117469108</v>
+        <v>0.71859439257085611</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
@@ -2583,11 +2784,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.79818677773962121</v>
+        <v>0.73715816262868339</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.15">
@@ -2596,11 +2797,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.81757447619364365</v>
+        <v>0.75491498686762826</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
@@ -2609,11 +2810,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.83548353710343692</v>
+        <v>0.77184349783907469</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.15">
@@ -2622,11 +2823,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.85195280196831058</v>
+        <v>0.78793119564289471</v>
       </c>
       <c r="D48">
         <f t="shared" si="1"/>
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.15">
@@ -2635,11 +2836,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.86703575980217062</v>
+        <v>0.80317379635690156</v>
       </c>
       <c r="D49">
         <f t="shared" si="1"/>
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.15">
@@ -2648,11 +2849,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.88079707797788231</v>
+        <v>0.81757447619364365</v>
       </c>
       <c r="D50">
         <f t="shared" si="1"/>
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.15">
@@ -2661,11 +2862,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.89330940605434872</v>
+        <v>0.83114304785831683</v>
       </c>
       <c r="D51">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.15">
@@ -2674,11 +2875,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.90465053510089055</v>
+        <v>0.84389510255454259</v>
       </c>
       <c r="D52">
         <f t="shared" si="1"/>
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.15">
@@ -2687,11 +2888,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.91490095499297974</v>
+        <v>0.85585114696725939</v>
       </c>
       <c r="D53">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.15">
@@ -2700,11 +2901,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.92414181997875655</v>
+        <v>0.86703575980217062</v>
       </c>
       <c r="D54">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.15">
@@ -2713,11 +2914,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.93245330886037092</v>
+        <v>0.87747678748184066</v>
       </c>
       <c r="D55">
         <f t="shared" si="1"/>
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.15">
@@ -2726,11 +2927,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.93991334982599239</v>
+        <v>0.8872045937171068</v>
       </c>
       <c r="D56">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.15">
@@ -2739,11 +2940,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.94659667020017568</v>
+        <v>0.89625137313362024</v>
       </c>
       <c r="D57">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.15">
@@ -2752,11 +2953,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.95257412682243336</v>
+        <v>0.90465053510089055</v>
       </c>
       <c r="D58">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.15">
@@ -2765,11 +2966,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.95791227208438112</v>
+        <v>0.91243616047694143</v>
       </c>
       <c r="D59">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.15">
@@ -2778,11 +2979,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.96267311265587063</v>
+        <v>0.91964253117779293</v>
       </c>
       <c r="D60">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.15">
@@ -2791,11 +2992,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.9669140216112958</v>
+        <v>0.92630373029395152</v>
       </c>
       <c r="D61">
         <f t="shared" si="1"/>
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.15">
@@ -2804,11 +3005,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.97068776924864364</v>
+        <v>0.93245330886037092</v>
       </c>
       <c r="D62">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.15">
@@ -2817,11 +3018,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.9740426428022031</v>
+        <v>0.93812401427635728</v>
       </c>
       <c r="D63">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.15">
@@ -2830,11 +3031,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.97702263008997436</v>
+        <v>0.94334757469202613</v>
       </c>
       <c r="D64">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.15">
@@ -2843,11 +3044,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.97966764665734118</v>
+        <v>0.94815453335022004</v>
       </c>
       <c r="D65">
         <f t="shared" si="1"/>
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
